--- a/biology/Zoologie/Grand-duc_du_Népal/Grand-duc_du_Népal.xlsx
+++ b/biology/Zoologie/Grand-duc_du_Népal/Grand-duc_du_Népal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo nipalensis
-Le Grand-duc du Népal (Bubo nipalensis) est une espèce de hibou très coloré vivant dans les forêts de d'Asie, de l'Inde à la Chine et au sud jusqu'en Thaïlande[1]. Il appartient en fait à un complexe d'espèces avec le grand-duc bruyant (Bubo sumatranus), qui est physiquement assez proche mais qui présente un mode de spéciation allopatrique.
+Le Grand-duc du Népal (Bubo nipalensis) est une espèce de hibou très coloré vivant dans les forêts de d'Asie, de l'Inde à la Chine et au sud jusqu'en Thaïlande. Il appartient en fait à un complexe d'espèces avec le grand-duc bruyant (Bubo sumatranus), qui est physiquement assez proche mais qui présente un mode de spéciation allopatrique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand-duc peuple les forêts humides et les montagnes de son aire de répartition. C'est une espèce sédentaire que l'on rencontre au Népal jusqu'à 3 000 mètres d'altitude. Dans les forêts du sud-ouest souvent près des cours d'eau[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand-duc peuple les forêts humides et les montagnes de son aire de répartition. C'est une espèce sédentaire que l'on rencontre au Népal jusqu'à 3 000 mètres d'altitude. Dans les forêts du sud-ouest souvent près des cours d'eau.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bubo nipalensis possède un corps large et puissant et mesure environ 65 centimètres de large pour une masse de 1,5 kg et une envergure de 1,5 m. Il possède des aigrettes bien développées et presque horizontales.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se nourrit d'oiseaux, de petits mammifères, de reptiles et de poissons[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se nourrit d'oiseaux, de petits mammifères, de reptiles et de poissons.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle pond un seul œuf qu'elle couve environ un mois. Cette espèce niche dans des trous d'arbre ou dans de vieux nids abandonnés. L'œuf pondu est très farouchement défendu par le couple (les deux parents).
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Population</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille de la population mondiale n'a pas été quantifiée, du fait que l'espèce est rarement signalée et très localisée (del Hoyo et al., 1999)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille de la population mondiale n'a pas été quantifiée, du fait que l'espèce est rarement signalée et très localisée (del Hoyo et al., 1999).
 </t>
         </is>
       </c>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,9 +689,11 @@
           <t>Statut UICN</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'UICN, cette espèce possède une vaste aire et est considérée comme « Préoccupation mineure » mais pourrait se rapprocher du statut « Vulnérable » (zone de répartition de plus de 20 000 avec cependant un habitat en déclin ou fluctuant dans sa qualité notamment, parfois fragmenté de manière sévère). La tendance de l'espèce semble être stable et donc ne touche pas encore le seuil du statut « Vulnérable » (les critères et tendances de population étant une diminution de 30 % en déclin sur 10 ans ou trois générations). La taille de la population n'a pas été quantifiée exactement (10 000 individus matures avec un déclin continu estimé à 10 % en dix ans ou trois générations). C'est notamment pour ces raisons que l'espèce est évaluée comme « Préoccupation mineure »[3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'UICN, cette espèce possède une vaste aire et est considérée comme « Préoccupation mineure » mais pourrait se rapprocher du statut « Vulnérable » (zone de répartition de plus de 20 000 avec cependant un habitat en déclin ou fluctuant dans sa qualité notamment, parfois fragmenté de manière sévère). La tendance de l'espèce semble être stable et donc ne touche pas encore le seuil du statut « Vulnérable » (les critères et tendances de population étant une diminution de 30 % en déclin sur 10 ans ou trois générations). La taille de la population n'a pas été quantifiée exactement (10 000 individus matures avec un déclin continu estimé à 10 % en dix ans ou trois générations). C'est notamment pour ces raisons que l'espèce est évaluée comme « Préoccupation mineure ».
 </t>
         </is>
       </c>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Grand-duc_du_N%C3%A9pal</t>
+          <t>Grand-duc_du_Népal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,7 +722,9 @@
           <t>Zoo, captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>La Ménagerie Zoo du jardin des plantes de Paris (France) détient au moins un couple de Bubo nipalensis.</t>
         </is>
